--- a/data/pca/factorExposure/factorExposure_2015-11-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01698418969011421</v>
+        <v>0.01374176152894634</v>
       </c>
       <c r="C2">
-        <v>0.03108942625238812</v>
+        <v>0.03576247529696532</v>
       </c>
       <c r="D2">
-        <v>-0.09172756641709118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1246181660118019</v>
+      </c>
+      <c r="E2">
+        <v>0.07180048007551214</v>
+      </c>
+      <c r="F2">
+        <v>0.0259242065741817</v>
+      </c>
+      <c r="G2">
+        <v>-0.07775322888000161</v>
+      </c>
+      <c r="H2">
+        <v>0.07917696690845283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01993750062390709</v>
+        <v>0.01208143157978002</v>
       </c>
       <c r="C3">
-        <v>0.05214215288803426</v>
+        <v>0.03985243561644013</v>
       </c>
       <c r="D3">
-        <v>-0.1059729337532312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.06512634524377438</v>
+      </c>
+      <c r="E3">
+        <v>0.04158151207466753</v>
+      </c>
+      <c r="F3">
+        <v>0.04497208266164258</v>
+      </c>
+      <c r="G3">
+        <v>-0.09918267336285226</v>
+      </c>
+      <c r="H3">
+        <v>0.005316946547977708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05745083382689996</v>
+        <v>0.05425702952858562</v>
       </c>
       <c r="C4">
-        <v>0.04136868862391897</v>
+        <v>0.06531469167969164</v>
       </c>
       <c r="D4">
-        <v>-0.1259293931514919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1459939186353458</v>
+      </c>
+      <c r="E4">
+        <v>0.0535071380702689</v>
+      </c>
+      <c r="F4">
+        <v>0.02130612404798026</v>
+      </c>
+      <c r="G4">
+        <v>0.03850273943212115</v>
+      </c>
+      <c r="H4">
+        <v>-0.02453173439417286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04210506586540459</v>
+        <v>0.03989829379972262</v>
       </c>
       <c r="C6">
-        <v>0.01374968572362537</v>
+        <v>0.02847556850714348</v>
       </c>
       <c r="D6">
-        <v>-0.1340997842176092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1365674975338098</v>
+      </c>
+      <c r="E6">
+        <v>0.02953493134316888</v>
+      </c>
+      <c r="F6">
+        <v>0.01681174232904559</v>
+      </c>
+      <c r="G6">
+        <v>-0.01072618366209979</v>
+      </c>
+      <c r="H6">
+        <v>0.009195815338596433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02099193758929887</v>
+        <v>0.01433927253733632</v>
       </c>
       <c r="C7">
-        <v>0.01764739949780957</v>
+        <v>0.03136714642292283</v>
       </c>
       <c r="D7">
-        <v>-0.0999722647686649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09670149282427276</v>
+      </c>
+      <c r="E7">
+        <v>0.03063331097381506</v>
+      </c>
+      <c r="F7">
+        <v>0.02361507445658578</v>
+      </c>
+      <c r="G7">
+        <v>-0.007865922445435849</v>
+      </c>
+      <c r="H7">
+        <v>0.1083646744832317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.010842194313953</v>
+        <v>0.006752338618605752</v>
       </c>
       <c r="C8">
-        <v>0.02839561400876445</v>
+        <v>0.03785694991856346</v>
       </c>
       <c r="D8">
-        <v>-0.05677635813642069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07494845797565723</v>
+      </c>
+      <c r="E8">
+        <v>0.0350701128586613</v>
+      </c>
+      <c r="F8">
+        <v>0.0446166755525781</v>
+      </c>
+      <c r="G8">
+        <v>-0.02061021132892286</v>
+      </c>
+      <c r="H8">
+        <v>0.03688688052931235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04622379658611939</v>
+        <v>0.04241802685072762</v>
       </c>
       <c r="C9">
-        <v>0.04244816013981288</v>
+        <v>0.06204295038730413</v>
       </c>
       <c r="D9">
-        <v>-0.1111847503768444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1216428621892654</v>
+      </c>
+      <c r="E9">
+        <v>0.03866798150998015</v>
+      </c>
+      <c r="F9">
+        <v>0.003517237576415222</v>
+      </c>
+      <c r="G9">
+        <v>0.02638943611160917</v>
+      </c>
+      <c r="H9">
+        <v>0.006039915369155519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09748570292339181</v>
+        <v>0.1425859400474673</v>
       </c>
       <c r="C10">
-        <v>-0.1893530374889013</v>
+        <v>-0.1883508735167992</v>
       </c>
       <c r="D10">
-        <v>0.00446504066427653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004112872815060533</v>
+      </c>
+      <c r="E10">
+        <v>0.04303185854783483</v>
+      </c>
+      <c r="F10">
+        <v>0.02531343104082548</v>
+      </c>
+      <c r="G10">
+        <v>0.03202257024840281</v>
+      </c>
+      <c r="H10">
+        <v>0.0006572398484821591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03348652938572392</v>
+        <v>0.0281389439695189</v>
       </c>
       <c r="C11">
-        <v>0.03810704177417346</v>
+        <v>0.04525092062739651</v>
       </c>
       <c r="D11">
-        <v>-0.05663917604074095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05745517830787749</v>
+      </c>
+      <c r="E11">
+        <v>-0.004961378968819583</v>
+      </c>
+      <c r="F11">
+        <v>0.0009915489239923393</v>
+      </c>
+      <c r="G11">
+        <v>-0.005276848132488653</v>
+      </c>
+      <c r="H11">
+        <v>0.04657704874895859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04019392180009286</v>
+        <v>0.03352369405763939</v>
       </c>
       <c r="C12">
-        <v>0.03861794506481512</v>
+        <v>0.04653225585339737</v>
       </c>
       <c r="D12">
-        <v>-0.06125873190430444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05818932834769177</v>
+      </c>
+      <c r="E12">
+        <v>0.001796235726106549</v>
+      </c>
+      <c r="F12">
+        <v>-0.00739027485580381</v>
+      </c>
+      <c r="G12">
+        <v>-0.00606796538230867</v>
+      </c>
+      <c r="H12">
+        <v>0.06016457816274289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01845039840884879</v>
+        <v>0.01808833953724563</v>
       </c>
       <c r="C13">
-        <v>0.0298938560246307</v>
+        <v>0.03842134743295098</v>
       </c>
       <c r="D13">
-        <v>-0.1237445757394555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.146655656694967</v>
+      </c>
+      <c r="E13">
+        <v>0.04830928995201367</v>
+      </c>
+      <c r="F13">
+        <v>0.04000059218602195</v>
+      </c>
+      <c r="G13">
+        <v>-0.01818942212861386</v>
+      </c>
+      <c r="H13">
+        <v>0.09399715090973892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008407924731623452</v>
+        <v>0.008160532476804721</v>
       </c>
       <c r="C14">
-        <v>0.01443347233143819</v>
+        <v>0.02455915819134767</v>
       </c>
       <c r="D14">
-        <v>-0.08252213218291173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09209366499937831</v>
+      </c>
+      <c r="E14">
+        <v>0.03802998292193818</v>
+      </c>
+      <c r="F14">
+        <v>-0.001090391394274724</v>
+      </c>
+      <c r="G14">
+        <v>-0.02117250318006076</v>
+      </c>
+      <c r="H14">
+        <v>0.09358143293907775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002460186025656472</v>
+        <v>0.001174752481174603</v>
       </c>
       <c r="C15">
-        <v>0.002650654081493797</v>
+        <v>0.01162924932566334</v>
       </c>
       <c r="D15">
-        <v>-0.003066053927853724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03418026191734155</v>
+      </c>
+      <c r="E15">
+        <v>0.007959539366903443</v>
+      </c>
+      <c r="F15">
+        <v>-0.001480584709802644</v>
+      </c>
+      <c r="G15">
+        <v>-0.01044767180812166</v>
+      </c>
+      <c r="H15">
+        <v>0.006437483882059044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03380263000710519</v>
+        <v>0.02912852173665215</v>
       </c>
       <c r="C16">
-        <v>0.04038294248016676</v>
+        <v>0.04515042524001844</v>
       </c>
       <c r="D16">
-        <v>-0.06711874999888769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06384501563698115</v>
+      </c>
+      <c r="E16">
+        <v>0.007261816445199232</v>
+      </c>
+      <c r="F16">
+        <v>-0.007810571825301423</v>
+      </c>
+      <c r="G16">
+        <v>-0.005679489691653368</v>
+      </c>
+      <c r="H16">
+        <v>0.056939409507725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01107639372440238</v>
+        <v>0.007653787228692479</v>
       </c>
       <c r="C19">
-        <v>0.02385215729627351</v>
+        <v>0.0212149194330516</v>
       </c>
       <c r="D19">
-        <v>-0.1585665545480434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1217171502736343</v>
+      </c>
+      <c r="E19">
+        <v>0.06410504901172626</v>
+      </c>
+      <c r="F19">
+        <v>-0.002342254553685617</v>
+      </c>
+      <c r="G19">
+        <v>-0.02812800423290515</v>
+      </c>
+      <c r="H19">
+        <v>0.0615514135685293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01701693705448557</v>
+        <v>0.01561569940250301</v>
       </c>
       <c r="C20">
-        <v>0.02562850129865029</v>
+        <v>0.03370195237856666</v>
       </c>
       <c r="D20">
-        <v>-0.08622992023653489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1009522717038214</v>
+      </c>
+      <c r="E20">
+        <v>0.05189392130289575</v>
+      </c>
+      <c r="F20">
+        <v>-0.001839867934554431</v>
+      </c>
+      <c r="G20">
+        <v>-0.006684474305268854</v>
+      </c>
+      <c r="H20">
+        <v>0.05338751479521104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0142138653415286</v>
+        <v>0.01333205957261407</v>
       </c>
       <c r="C21">
-        <v>0.0298001911994373</v>
+        <v>0.03926009992628718</v>
       </c>
       <c r="D21">
-        <v>-0.1267461018954432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1415838734871691</v>
+      </c>
+      <c r="E21">
+        <v>0.08956018623612928</v>
+      </c>
+      <c r="F21">
+        <v>0.006762057077559789</v>
+      </c>
+      <c r="G21">
+        <v>0.01319931052618978</v>
+      </c>
+      <c r="H21">
+        <v>0.1166247495819747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007150713722856152</v>
+        <v>0.005641121458699498</v>
       </c>
       <c r="C22">
-        <v>0.02787387439398929</v>
+        <v>0.04161493401567207</v>
       </c>
       <c r="D22">
-        <v>-0.09413479656753332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.148733169175225</v>
+      </c>
+      <c r="E22">
+        <v>0.02987563358097604</v>
+      </c>
+      <c r="F22">
+        <v>0.08967535363167385</v>
+      </c>
+      <c r="G22">
+        <v>-0.07324848041654172</v>
+      </c>
+      <c r="H22">
+        <v>-0.07831915462393287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007274198310775112</v>
+        <v>0.005749793099830021</v>
       </c>
       <c r="C23">
-        <v>0.02780685546571751</v>
+        <v>0.04206240403887074</v>
       </c>
       <c r="D23">
-        <v>-0.09341670503295695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1481477437055676</v>
+      </c>
+      <c r="E23">
+        <v>0.03015299691549026</v>
+      </c>
+      <c r="F23">
+        <v>0.08966001266071137</v>
+      </c>
+      <c r="G23">
+        <v>-0.07231679297334601</v>
+      </c>
+      <c r="H23">
+        <v>-0.07838076326818562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0367994931340077</v>
+        <v>0.03042663857981346</v>
       </c>
       <c r="C24">
-        <v>0.04907563474038882</v>
+        <v>0.05660440456494618</v>
       </c>
       <c r="D24">
-        <v>-0.065945835002371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0658527521748041</v>
+      </c>
+      <c r="E24">
+        <v>0.01228647491828667</v>
+      </c>
+      <c r="F24">
+        <v>-0.004575664742054731</v>
+      </c>
+      <c r="G24">
+        <v>0.0006578082328839799</v>
+      </c>
+      <c r="H24">
+        <v>0.06877419506611056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04037988641576384</v>
+        <v>0.03468782279540997</v>
       </c>
       <c r="C25">
-        <v>0.04818603178872478</v>
+        <v>0.05420377457863871</v>
       </c>
       <c r="D25">
-        <v>-0.06565934217822603</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06294602342437258</v>
+      </c>
+      <c r="E25">
+        <v>0.01344207523621538</v>
+      </c>
+      <c r="F25">
+        <v>0.000633556078816775</v>
+      </c>
+      <c r="G25">
+        <v>0.001209553624977724</v>
+      </c>
+      <c r="H25">
+        <v>0.05624843776227705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02068010938022955</v>
+        <v>0.01913392641314582</v>
       </c>
       <c r="C26">
-        <v>0.006734574322508019</v>
+        <v>0.01829930800794957</v>
       </c>
       <c r="D26">
-        <v>-0.05250415325973327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06417816965257177</v>
+      </c>
+      <c r="E26">
+        <v>0.02739247885594025</v>
+      </c>
+      <c r="F26">
+        <v>0.005384441262828619</v>
+      </c>
+      <c r="G26">
+        <v>-0.01265505702403091</v>
+      </c>
+      <c r="H26">
+        <v>0.0576435182719797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1469174780138542</v>
+        <v>0.2027654215170456</v>
       </c>
       <c r="C28">
-        <v>-0.2692152525716637</v>
+        <v>-0.2512995899240167</v>
       </c>
       <c r="D28">
-        <v>0.0382164429209643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01269374610531495</v>
+      </c>
+      <c r="E28">
+        <v>0.07067690945890688</v>
+      </c>
+      <c r="F28">
+        <v>0.006155298389065559</v>
+      </c>
+      <c r="G28">
+        <v>0.06143150848469949</v>
+      </c>
+      <c r="H28">
+        <v>0.01886718757195414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005044363051551902</v>
+        <v>0.005932563530240157</v>
       </c>
       <c r="C29">
-        <v>0.01578496483235499</v>
+        <v>0.02291928745551382</v>
       </c>
       <c r="D29">
-        <v>-0.06943078355278932</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08889668922438816</v>
+      </c>
+      <c r="E29">
+        <v>0.03387539700024546</v>
+      </c>
+      <c r="F29">
+        <v>0.01338182632652391</v>
+      </c>
+      <c r="G29">
+        <v>-0.003234736436641483</v>
+      </c>
+      <c r="H29">
+        <v>0.0981922353755359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03825315680289196</v>
+        <v>0.04132267434119123</v>
       </c>
       <c r="C30">
-        <v>0.03438618936502822</v>
+        <v>0.06080126942965002</v>
       </c>
       <c r="D30">
-        <v>-0.170042081032059</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1799174787597253</v>
+      </c>
+      <c r="E30">
+        <v>0.01761532768724484</v>
+      </c>
+      <c r="F30">
+        <v>0.01110230804746882</v>
+      </c>
+      <c r="G30">
+        <v>-0.02579914285180536</v>
+      </c>
+      <c r="H30">
+        <v>-0.008269089334896399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06870730255318117</v>
+        <v>0.05501391180783449</v>
       </c>
       <c r="C31">
-        <v>0.04915657884560404</v>
+        <v>0.07391664973070039</v>
       </c>
       <c r="D31">
-        <v>-0.0661170416250732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05364347047854413</v>
+      </c>
+      <c r="E31">
+        <v>0.03142406227536945</v>
+      </c>
+      <c r="F31">
+        <v>0.03201508733560166</v>
+      </c>
+      <c r="G31">
+        <v>0.01501112774518104</v>
+      </c>
+      <c r="H31">
+        <v>0.04618921728023859</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004746911300584752</v>
+        <v>0.01096160636615689</v>
       </c>
       <c r="C32">
-        <v>0.01989679683708727</v>
+        <v>0.01858381822969142</v>
       </c>
       <c r="D32">
-        <v>-0.06193231150986401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1060921661868797</v>
+      </c>
+      <c r="E32">
+        <v>0.0903409213412833</v>
+      </c>
+      <c r="F32">
+        <v>0.01329778724301822</v>
+      </c>
+      <c r="G32">
+        <v>0.01501422361781824</v>
+      </c>
+      <c r="H32">
+        <v>0.09786372771648195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02497781184960062</v>
+        <v>0.02304743885995982</v>
       </c>
       <c r="C33">
-        <v>0.02914372877534917</v>
+        <v>0.043635520019579</v>
       </c>
       <c r="D33">
-        <v>-0.1317537681916049</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1332582674309704</v>
+      </c>
+      <c r="E33">
+        <v>0.04177406787764314</v>
+      </c>
+      <c r="F33">
+        <v>0.0182359220547926</v>
+      </c>
+      <c r="G33">
+        <v>-0.009798093837893703</v>
+      </c>
+      <c r="H33">
+        <v>0.06193872518389033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03477274821503401</v>
+        <v>0.02663468884478446</v>
       </c>
       <c r="C34">
-        <v>0.06121052428146082</v>
+        <v>0.06160997973299825</v>
       </c>
       <c r="D34">
-        <v>-0.06794205043030832</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05533838474712301</v>
+      </c>
+      <c r="E34">
+        <v>-0.003559205776636041</v>
+      </c>
+      <c r="F34">
+        <v>-0.009469090140972629</v>
+      </c>
+      <c r="G34">
+        <v>-0.008476221609101251</v>
+      </c>
+      <c r="H34">
+        <v>0.07559798947095242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.000746315500600844</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001060633378365481</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.00535922468112376</v>
+      </c>
+      <c r="E35">
+        <v>0.001178812845679212</v>
+      </c>
+      <c r="F35">
+        <v>0.0001577885298788302</v>
+      </c>
+      <c r="G35">
+        <v>-0.001912302125941382</v>
+      </c>
+      <c r="H35">
+        <v>0.00187970676396019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02142687990240051</v>
+        <v>0.01977453695006463</v>
       </c>
       <c r="C36">
-        <v>0.003279831886070056</v>
+        <v>0.01464998160798941</v>
       </c>
       <c r="D36">
-        <v>-0.06942191962133094</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07654640082940702</v>
+      </c>
+      <c r="E36">
+        <v>0.03287449497357992</v>
+      </c>
+      <c r="F36">
+        <v>0.003768025962497723</v>
+      </c>
+      <c r="G36">
+        <v>0.002910093938679245</v>
+      </c>
+      <c r="H36">
+        <v>0.05255732656733769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02148224445192431</v>
+        <v>0.0205731244995471</v>
       </c>
       <c r="C38">
-        <v>0.01478727245075898</v>
+        <v>0.02021992838333827</v>
       </c>
       <c r="D38">
-        <v>-0.05450366784321285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06059251993859584</v>
+      </c>
+      <c r="E38">
+        <v>0.03595294599531072</v>
+      </c>
+      <c r="F38">
+        <v>-0.007575656505026835</v>
+      </c>
+      <c r="G38">
+        <v>-0.04092228901048004</v>
+      </c>
+      <c r="H38">
+        <v>0.03552099597585893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03945939452221654</v>
+        <v>0.03505774593015126</v>
       </c>
       <c r="C39">
-        <v>0.04915655008277455</v>
+        <v>0.06692025191529528</v>
       </c>
       <c r="D39">
-        <v>-0.0891379866998194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1033873164047708</v>
+      </c>
+      <c r="E39">
+        <v>0.007440735557369667</v>
+      </c>
+      <c r="F39">
+        <v>-0.02605072159025286</v>
+      </c>
+      <c r="G39">
+        <v>-0.01080915601950157</v>
+      </c>
+      <c r="H39">
+        <v>0.08159414822692339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01971919062309975</v>
+        <v>0.01338885813055579</v>
       </c>
       <c r="C40">
-        <v>0.0455987291960982</v>
+        <v>0.04085212700844928</v>
       </c>
       <c r="D40">
-        <v>-0.0762366470828813</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0829692915506446</v>
+      </c>
+      <c r="E40">
+        <v>0.06230275212364562</v>
+      </c>
+      <c r="F40">
+        <v>0.07163465678742049</v>
+      </c>
+      <c r="G40">
+        <v>-0.07701161705016463</v>
+      </c>
+      <c r="H40">
+        <v>0.1493840386193292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02494591716821002</v>
+        <v>0.02394159979760073</v>
       </c>
       <c r="C41">
-        <v>-0.002075414342133837</v>
+        <v>0.008211593501381349</v>
       </c>
       <c r="D41">
-        <v>-0.06559232221535366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05621549777850329</v>
+      </c>
+      <c r="E41">
+        <v>0.05279388729178561</v>
+      </c>
+      <c r="F41">
+        <v>0.003797284174615287</v>
+      </c>
+      <c r="G41">
+        <v>-0.01878114095868853</v>
+      </c>
+      <c r="H41">
+        <v>0.04260109389122844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03004448200455948</v>
+        <v>0.02368238322804077</v>
       </c>
       <c r="C43">
-        <v>0.0079937944495664</v>
+        <v>0.01857156420067606</v>
       </c>
       <c r="D43">
-        <v>-0.100137932106081</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08256606460121758</v>
+      </c>
+      <c r="E43">
+        <v>0.031791336875094</v>
+      </c>
+      <c r="F43">
+        <v>0.00664690145803424</v>
+      </c>
+      <c r="G43">
+        <v>-0.02005329020744501</v>
+      </c>
+      <c r="H43">
+        <v>0.06661180831939828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01669606225147161</v>
+        <v>0.01745883565080317</v>
       </c>
       <c r="C44">
-        <v>0.04374937602676068</v>
+        <v>0.04258383200402201</v>
       </c>
       <c r="D44">
-        <v>-0.08055055240995347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1010038771329494</v>
+      </c>
+      <c r="E44">
+        <v>0.06605259074052292</v>
+      </c>
+      <c r="F44">
+        <v>0.01137205266104226</v>
+      </c>
+      <c r="G44">
+        <v>-0.01264334249214388</v>
+      </c>
+      <c r="H44">
+        <v>0.0690774369517862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02022932486156409</v>
+        <v>0.01476962870381333</v>
       </c>
       <c r="C46">
-        <v>0.01522564004032456</v>
+        <v>0.03083283455815545</v>
       </c>
       <c r="D46">
-        <v>-0.07232336277498463</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08716385308277415</v>
+      </c>
+      <c r="E46">
+        <v>0.03874584488082217</v>
+      </c>
+      <c r="F46">
+        <v>-0.01241659043203889</v>
+      </c>
+      <c r="G46">
+        <v>0.004587540810987287</v>
+      </c>
+      <c r="H46">
+        <v>0.1068928356304195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09677495028149818</v>
+        <v>0.08141738361380514</v>
       </c>
       <c r="C47">
-        <v>0.06745275104872127</v>
+        <v>0.09022491069584329</v>
       </c>
       <c r="D47">
-        <v>-0.0453963806914539</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03358957565861</v>
+      </c>
+      <c r="E47">
+        <v>0.03742181163479038</v>
+      </c>
+      <c r="F47">
+        <v>0.02190576962483153</v>
+      </c>
+      <c r="G47">
+        <v>0.03768224721415205</v>
+      </c>
+      <c r="H47">
+        <v>0.03099379860662819</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01588256200913968</v>
+        <v>0.01673482344827765</v>
       </c>
       <c r="C48">
-        <v>0.01426247660257335</v>
+        <v>0.01971702319478653</v>
       </c>
       <c r="D48">
-        <v>-0.06289523619320336</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07352783752853607</v>
+      </c>
+      <c r="E48">
+        <v>0.05109278499584195</v>
+      </c>
+      <c r="F48">
+        <v>-0.0003726358865982616</v>
+      </c>
+      <c r="G48">
+        <v>-0.0003359410617958779</v>
+      </c>
+      <c r="H48">
+        <v>0.05837895336106662</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06256709148715191</v>
+        <v>0.05272739190650089</v>
       </c>
       <c r="C50">
-        <v>0.05123631705992281</v>
+        <v>0.06720924789667504</v>
       </c>
       <c r="D50">
-        <v>-0.06586621493350577</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05709321656392655</v>
+      </c>
+      <c r="E50">
+        <v>0.04255472192156921</v>
+      </c>
+      <c r="F50">
+        <v>0.03958657880348444</v>
+      </c>
+      <c r="G50">
+        <v>-0.01948008566377557</v>
+      </c>
+      <c r="H50">
+        <v>0.04313837401723296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01100014496209985</v>
+        <v>0.01062789560210246</v>
       </c>
       <c r="C51">
-        <v>0.01648441028710699</v>
+        <v>0.02110092689928886</v>
       </c>
       <c r="D51">
-        <v>-0.07981030269503785</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.089659156910859</v>
+      </c>
+      <c r="E51">
+        <v>0.01251774568414291</v>
+      </c>
+      <c r="F51">
+        <v>0.004233438547399014</v>
+      </c>
+      <c r="G51">
+        <v>-0.02162272383531931</v>
+      </c>
+      <c r="H51">
+        <v>0.05934265165259723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08910473868607585</v>
+        <v>0.08483309455259934</v>
       </c>
       <c r="C53">
-        <v>0.08946006278997741</v>
+        <v>0.1034544072264868</v>
       </c>
       <c r="D53">
-        <v>-0.003239318571672193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01033418178913962</v>
+      </c>
+      <c r="E53">
+        <v>0.1085227391850462</v>
+      </c>
+      <c r="F53">
+        <v>0.04389979403059518</v>
+      </c>
+      <c r="G53">
+        <v>0.08324579231228491</v>
+      </c>
+      <c r="H53">
+        <v>0.01648248161995085</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02994384423163493</v>
+        <v>0.02611632182654525</v>
       </c>
       <c r="C54">
-        <v>0.02960695335686213</v>
+        <v>0.03653092425414501</v>
       </c>
       <c r="D54">
-        <v>-0.09138383223640788</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08809236257461617</v>
+      </c>
+      <c r="E54">
+        <v>0.04137319484536538</v>
+      </c>
+      <c r="F54">
+        <v>-0.01009046777330747</v>
+      </c>
+      <c r="G54">
+        <v>-0.03064085076573967</v>
+      </c>
+      <c r="H54">
+        <v>0.1092981279669549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09353200087887104</v>
+        <v>0.08382907659190088</v>
       </c>
       <c r="C55">
-        <v>0.05951907493620184</v>
+        <v>0.08168204751437867</v>
       </c>
       <c r="D55">
-        <v>0.01504022130237089</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008683010911656566</v>
+      </c>
+      <c r="E55">
+        <v>0.05946183952035953</v>
+      </c>
+      <c r="F55">
+        <v>0.03986214085905677</v>
+      </c>
+      <c r="G55">
+        <v>0.04324214219647828</v>
+      </c>
+      <c r="H55">
+        <v>0.001536100359121696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1410446351195527</v>
+        <v>0.128472087349149</v>
       </c>
       <c r="C56">
-        <v>0.09469452948476403</v>
+        <v>0.1265549345124164</v>
       </c>
       <c r="D56">
-        <v>0.006178418455719418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0117718245419739</v>
+      </c>
+      <c r="E56">
+        <v>0.06300622678020905</v>
+      </c>
+      <c r="F56">
+        <v>0.03067173117204151</v>
+      </c>
+      <c r="G56">
+        <v>0.04549102163097386</v>
+      </c>
+      <c r="H56">
+        <v>0.01016657922474676</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01929084685849967</v>
+        <v>0.02820576318712457</v>
       </c>
       <c r="C58">
-        <v>-0.01086989248753485</v>
+        <v>0.02560331866213139</v>
       </c>
       <c r="D58">
-        <v>-0.3037576223251859</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3543929809720537</v>
+      </c>
+      <c r="E58">
+        <v>0.1827812653535948</v>
+      </c>
+      <c r="F58">
+        <v>0.1308168047598669</v>
+      </c>
+      <c r="G58">
+        <v>-0.2178365013019637</v>
+      </c>
+      <c r="H58">
+        <v>-0.4404367319196345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.139604289186755</v>
+        <v>0.180586848902464</v>
       </c>
       <c r="C59">
-        <v>-0.194431340747521</v>
+        <v>-0.1688368855362094</v>
       </c>
       <c r="D59">
-        <v>-0.02842414294932392</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05215314474942728</v>
+      </c>
+      <c r="E59">
+        <v>0.01452674589228017</v>
+      </c>
+      <c r="F59">
+        <v>-0.04119729014647684</v>
+      </c>
+      <c r="G59">
+        <v>0.001290499562061061</v>
+      </c>
+      <c r="H59">
+        <v>-0.02407904510568646</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.244271272739391</v>
+        <v>0.2262755665236945</v>
       </c>
       <c r="C60">
-        <v>0.05716776777036482</v>
+        <v>0.1050129523368566</v>
       </c>
       <c r="D60">
-        <v>-0.1996332575808844</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.115905447305556</v>
+      </c>
+      <c r="E60">
+        <v>-0.3604971778286357</v>
+      </c>
+      <c r="F60">
+        <v>0.03279007655125132</v>
+      </c>
+      <c r="G60">
+        <v>0.04212445914938986</v>
+      </c>
+      <c r="H60">
+        <v>-0.1108499827758113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04610776143423007</v>
+        <v>0.03970133901764297</v>
       </c>
       <c r="C61">
-        <v>0.05167905426525871</v>
+        <v>0.06368945012484852</v>
       </c>
       <c r="D61">
-        <v>-0.09709514629463632</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09019341778185316</v>
+      </c>
+      <c r="E61">
+        <v>0.003175418743027013</v>
+      </c>
+      <c r="F61">
+        <v>-0.01706549459480174</v>
+      </c>
+      <c r="G61">
+        <v>0.001799278673594716</v>
+      </c>
+      <c r="H61">
+        <v>0.07981570534681806</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01793563722395504</v>
+        <v>0.01495840852485716</v>
       </c>
       <c r="C63">
-        <v>0.02278341948637083</v>
+        <v>0.03335783140551728</v>
       </c>
       <c r="D63">
-        <v>-0.05966438527381613</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0675545590177323</v>
+      </c>
+      <c r="E63">
+        <v>0.02906096433862146</v>
+      </c>
+      <c r="F63">
+        <v>0.01808406796251671</v>
+      </c>
+      <c r="G63">
+        <v>-0.006925043870816134</v>
+      </c>
+      <c r="H63">
+        <v>0.0456928429303044</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.06049175504460814</v>
+        <v>0.05269655656813768</v>
       </c>
       <c r="C64">
-        <v>0.06621937619482013</v>
+        <v>0.08311362604794185</v>
       </c>
       <c r="D64">
-        <v>-0.06056622848655954</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05517059320764096</v>
+      </c>
+      <c r="E64">
+        <v>0.02660484925440148</v>
+      </c>
+      <c r="F64">
+        <v>-0.01338728120811684</v>
+      </c>
+      <c r="G64">
+        <v>0.04858082724407095</v>
+      </c>
+      <c r="H64">
+        <v>0.05995011422141047</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0475652695706795</v>
+        <v>0.04579830861223463</v>
       </c>
       <c r="C65">
-        <v>0.006186117320338842</v>
+        <v>0.02653925927593202</v>
       </c>
       <c r="D65">
-        <v>-0.1127348150822778</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.11645132601385</v>
+      </c>
+      <c r="E65">
+        <v>0.005648982552424825</v>
+      </c>
+      <c r="F65">
+        <v>0.01936776943870138</v>
+      </c>
+      <c r="G65">
+        <v>-0.03087632287284943</v>
+      </c>
+      <c r="H65">
+        <v>-0.03148991651570393</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04474842430146817</v>
+        <v>0.03937169884529776</v>
       </c>
       <c r="C66">
-        <v>0.05669529354941347</v>
+        <v>0.07697863543199225</v>
       </c>
       <c r="D66">
-        <v>-0.1121850386282342</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1306558229622914</v>
+      </c>
+      <c r="E66">
+        <v>0.01354663096730891</v>
+      </c>
+      <c r="F66">
+        <v>-0.01142826410726389</v>
+      </c>
+      <c r="G66">
+        <v>-0.0192693911673027</v>
+      </c>
+      <c r="H66">
+        <v>0.04959595348715655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04108319872806888</v>
+        <v>0.03760172196301816</v>
       </c>
       <c r="C67">
-        <v>0.01867926219267135</v>
+        <v>0.02673958087240167</v>
       </c>
       <c r="D67">
-        <v>-0.02435338574072644</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02054978751460214</v>
+      </c>
+      <c r="E67">
+        <v>0.01411089198459068</v>
+      </c>
+      <c r="F67">
+        <v>-0.007230161177813752</v>
+      </c>
+      <c r="G67">
+        <v>-0.03706155864976744</v>
+      </c>
+      <c r="H67">
+        <v>0.03574405696094975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1582715470255252</v>
+        <v>0.1974564833790745</v>
       </c>
       <c r="C68">
-        <v>-0.2370784939343274</v>
+        <v>-0.1980027970587709</v>
       </c>
       <c r="D68">
-        <v>0.0258742318232204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.008594618098289354</v>
+      </c>
+      <c r="E68">
+        <v>0.05332570217357649</v>
+      </c>
+      <c r="F68">
+        <v>0.03062036640841339</v>
+      </c>
+      <c r="G68">
+        <v>-0.01314241170537029</v>
+      </c>
+      <c r="H68">
+        <v>-0.008799918573003556</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08835762544877013</v>
+        <v>0.07414421815673003</v>
       </c>
       <c r="C69">
-        <v>0.0836229333529681</v>
+        <v>0.09689050610742894</v>
       </c>
       <c r="D69">
-        <v>-0.06617303178007365</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04663948472528008</v>
+      </c>
+      <c r="E69">
+        <v>0.02718037594469556</v>
+      </c>
+      <c r="F69">
+        <v>0.007561420866684214</v>
+      </c>
+      <c r="G69">
+        <v>0.0250877522489215</v>
+      </c>
+      <c r="H69">
+        <v>0.04090592725167465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1393997612985121</v>
+        <v>0.1849496463131739</v>
       </c>
       <c r="C71">
-        <v>-0.241275719951882</v>
+        <v>-0.2093873794341337</v>
       </c>
       <c r="D71">
-        <v>-0.01332552022066707</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03714920215951404</v>
+      </c>
+      <c r="E71">
+        <v>0.05370317578775872</v>
+      </c>
+      <c r="F71">
+        <v>0.03422796112509596</v>
+      </c>
+      <c r="G71">
+        <v>0.01312671315583948</v>
+      </c>
+      <c r="H71">
+        <v>0.02677570929909277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09678514269586362</v>
+        <v>0.09755787912785131</v>
       </c>
       <c r="C72">
-        <v>0.03990791548762278</v>
+        <v>0.07163764704423711</v>
       </c>
       <c r="D72">
-        <v>-0.08950286630621747</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09369621346656633</v>
+      </c>
+      <c r="E72">
+        <v>-0.03623623242080999</v>
+      </c>
+      <c r="F72">
+        <v>0.03894590180283372</v>
+      </c>
+      <c r="G72">
+        <v>0.02883777548208533</v>
+      </c>
+      <c r="H72">
+        <v>0.03087413815084783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2625891083898006</v>
+        <v>0.2375020167011326</v>
       </c>
       <c r="C73">
-        <v>0.01017318721725076</v>
+        <v>0.08974014060597714</v>
       </c>
       <c r="D73">
-        <v>-0.3161604665595457</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1680715102611302</v>
+      </c>
+      <c r="E73">
+        <v>-0.6707709225301275</v>
+      </c>
+      <c r="F73">
+        <v>0.0196472825751081</v>
+      </c>
+      <c r="G73">
+        <v>0.03533649473726287</v>
+      </c>
+      <c r="H73">
+        <v>-0.1505903007853572</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1101312813956208</v>
+        <v>0.09777611907483674</v>
       </c>
       <c r="C74">
-        <v>0.06932215407862652</v>
+        <v>0.09216065872010701</v>
       </c>
       <c r="D74">
-        <v>-0.006812155284528747</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.004346973367282979</v>
+      </c>
+      <c r="E74">
+        <v>0.07775969105030839</v>
+      </c>
+      <c r="F74">
+        <v>0.06286484879433103</v>
+      </c>
+      <c r="G74">
+        <v>0.059656453430025</v>
+      </c>
+      <c r="H74">
+        <v>-0.02492907582823963</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2507346471224651</v>
+        <v>0.2267672016616032</v>
       </c>
       <c r="C75">
-        <v>0.124168203988924</v>
+        <v>0.1665440264928737</v>
       </c>
       <c r="D75">
-        <v>0.07220381083497629</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09890835715643859</v>
+      </c>
+      <c r="E75">
+        <v>0.1074858655734373</v>
+      </c>
+      <c r="F75">
+        <v>-0.003990080024302988</v>
+      </c>
+      <c r="G75">
+        <v>0.05844476223839107</v>
+      </c>
+      <c r="H75">
+        <v>-0.0866057438136677</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.142427818888904</v>
+        <v>0.1265266379511144</v>
       </c>
       <c r="C76">
-        <v>0.08821911171487723</v>
+        <v>0.1148438074673771</v>
       </c>
       <c r="D76">
-        <v>0.007294982675977387</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.009560261282926329</v>
+      </c>
+      <c r="E76">
+        <v>0.1172956243758884</v>
+      </c>
+      <c r="F76">
+        <v>0.01708735834416245</v>
+      </c>
+      <c r="G76">
+        <v>0.04326245349234023</v>
+      </c>
+      <c r="H76">
+        <v>0.0153167764025707</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06583436164780382</v>
+        <v>0.06139949755996125</v>
       </c>
       <c r="C77">
-        <v>0.06195063290387483</v>
+        <v>0.07222245254484749</v>
       </c>
       <c r="D77">
-        <v>-0.04438204892261101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1336999837642357</v>
+      </c>
+      <c r="E77">
+        <v>0.2187825915542196</v>
+      </c>
+      <c r="F77">
+        <v>-0.2818353148298974</v>
+      </c>
+      <c r="G77">
+        <v>-0.2022904754263933</v>
+      </c>
+      <c r="H77">
+        <v>-0.2890912513730681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0419150866041865</v>
+        <v>0.04321593895247325</v>
       </c>
       <c r="C78">
-        <v>0.05360140817127187</v>
+        <v>0.06634690624841222</v>
       </c>
       <c r="D78">
-        <v>-0.1233535208192452</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.133905144709723</v>
+      </c>
+      <c r="E78">
+        <v>0.01352309169251199</v>
+      </c>
+      <c r="F78">
+        <v>0.01186051384873772</v>
+      </c>
+      <c r="G78">
+        <v>0.01198099575771646</v>
+      </c>
+      <c r="H78">
+        <v>0.02609780516399655</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02394521842879721</v>
+        <v>0.04528300051197899</v>
       </c>
       <c r="C79">
-        <v>0.08069940081947496</v>
+        <v>0.09272946601500179</v>
       </c>
       <c r="D79">
-        <v>0.05696207636309394</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02390874847132497</v>
+      </c>
+      <c r="E79">
+        <v>0.2071698131259595</v>
+      </c>
+      <c r="F79">
+        <v>0.1356449383391848</v>
+      </c>
+      <c r="G79">
+        <v>0.7458257005746303</v>
+      </c>
+      <c r="H79">
+        <v>-0.3300042691806077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03331727573453624</v>
+        <v>0.02561108203780137</v>
       </c>
       <c r="C80">
-        <v>0.02676178096837106</v>
+        <v>0.04501355767012009</v>
       </c>
       <c r="D80">
-        <v>-0.0240983388975077</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03029009465191526</v>
+      </c>
+      <c r="E80">
+        <v>0.0160166690285938</v>
+      </c>
+      <c r="F80">
+        <v>-0.01860518245920431</v>
+      </c>
+      <c r="G80">
+        <v>-0.05117484270018099</v>
+      </c>
+      <c r="H80">
+        <v>-0.0008154540620818328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1454784935101928</v>
+        <v>0.1266895631066741</v>
       </c>
       <c r="C81">
-        <v>0.09489073311577648</v>
+        <v>0.1196726349765797</v>
       </c>
       <c r="D81">
-        <v>0.05782576553380371</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07178737128896016</v>
+      </c>
+      <c r="E81">
+        <v>0.1122233923134144</v>
+      </c>
+      <c r="F81">
+        <v>0.02480022331899251</v>
+      </c>
+      <c r="G81">
+        <v>0.04621800646795047</v>
+      </c>
+      <c r="H81">
+        <v>-0.004102235983538506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3125571574643841</v>
+        <v>0.2508973259106988</v>
       </c>
       <c r="C82">
-        <v>0.2618321535049473</v>
+        <v>0.2645812609078256</v>
       </c>
       <c r="D82">
-        <v>0.2375429123620161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2472828910968101</v>
+      </c>
+      <c r="E82">
+        <v>-0.02400696391993097</v>
+      </c>
+      <c r="F82">
+        <v>0.04588171465768843</v>
+      </c>
+      <c r="G82">
+        <v>0.04962349639792991</v>
+      </c>
+      <c r="H82">
+        <v>0.492984092947173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02952644881185141</v>
+        <v>0.02554867867792997</v>
       </c>
       <c r="C83">
-        <v>0.05233334913379228</v>
+        <v>0.04905447107946328</v>
       </c>
       <c r="D83">
-        <v>-0.04695872815160178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05035854541246565</v>
+      </c>
+      <c r="E83">
+        <v>0.01904421460072563</v>
+      </c>
+      <c r="F83">
+        <v>-0.02639761448348499</v>
+      </c>
+      <c r="G83">
+        <v>-0.01619168575025825</v>
+      </c>
+      <c r="H83">
+        <v>0.0269675155942917</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0006585213623733871</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.00470357772025629</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01824819573800165</v>
+      </c>
+      <c r="E84">
+        <v>0.01731578097970487</v>
+      </c>
+      <c r="F84">
+        <v>0.008528846260535241</v>
+      </c>
+      <c r="G84">
+        <v>-0.008055634502180081</v>
+      </c>
+      <c r="H84">
+        <v>-0.0007830442132328188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1792295618054675</v>
+        <v>0.1559271109746159</v>
       </c>
       <c r="C85">
-        <v>0.09387363299478153</v>
+        <v>0.1339047554130007</v>
       </c>
       <c r="D85">
-        <v>0.03197822860833578</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05862185209856102</v>
+      </c>
+      <c r="E85">
+        <v>0.0512690835154298</v>
+      </c>
+      <c r="F85">
+        <v>0.03282519752834511</v>
+      </c>
+      <c r="G85">
+        <v>0.09911272791357845</v>
+      </c>
+      <c r="H85">
+        <v>-0.07831765333733551</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01742179668933806</v>
+        <v>0.02005331363194041</v>
       </c>
       <c r="C86">
-        <v>0.03312244221293321</v>
+        <v>0.02540862633350467</v>
       </c>
       <c r="D86">
-        <v>-0.1279230397406547</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1192964637030637</v>
+      </c>
+      <c r="E86">
+        <v>0.001943259109851203</v>
+      </c>
+      <c r="F86">
+        <v>-0.01764431561240419</v>
+      </c>
+      <c r="G86">
+        <v>-0.003259736204316253</v>
+      </c>
+      <c r="H86">
+        <v>0.07738962742523926</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03155340314356994</v>
+        <v>0.03635723732137925</v>
       </c>
       <c r="C87">
-        <v>0.005980582410997299</v>
+        <v>0.02563957380185657</v>
       </c>
       <c r="D87">
-        <v>-0.09679146327868954</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1360039694324423</v>
+      </c>
+      <c r="E87">
+        <v>0.07770365025989504</v>
+      </c>
+      <c r="F87">
+        <v>-0.006406935545354865</v>
+      </c>
+      <c r="G87">
+        <v>-0.02190048141541102</v>
+      </c>
+      <c r="H87">
+        <v>0.02599027878973449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07980985781592043</v>
+        <v>0.07129579399118674</v>
       </c>
       <c r="C88">
-        <v>0.03369710328923918</v>
+        <v>0.05305688178055502</v>
       </c>
       <c r="D88">
-        <v>-0.04368703583358835</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02695003134923943</v>
+      </c>
+      <c r="E88">
+        <v>0.007248842047994329</v>
+      </c>
+      <c r="F88">
+        <v>0.01931749680647976</v>
+      </c>
+      <c r="G88">
+        <v>0.001795680734466326</v>
+      </c>
+      <c r="H88">
+        <v>0.03096921367002482</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2067538795006983</v>
+        <v>0.2831467826968918</v>
       </c>
       <c r="C89">
-        <v>-0.3922840682532184</v>
+        <v>-0.3522567087031354</v>
       </c>
       <c r="D89">
-        <v>0.03615103108786547</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0002709346636871409</v>
+      </c>
+      <c r="E89">
+        <v>0.0434423892751187</v>
+      </c>
+      <c r="F89">
+        <v>-0.04148281634468454</v>
+      </c>
+      <c r="G89">
+        <v>0.04191373223485074</v>
+      </c>
+      <c r="H89">
+        <v>0.08358969577176577</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1907948591896594</v>
+        <v>0.2398864577319301</v>
       </c>
       <c r="C90">
-        <v>-0.2992218299225972</v>
+        <v>-0.2498136834756482</v>
       </c>
       <c r="D90">
-        <v>0.01912939932715758</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01568447331202744</v>
+      </c>
+      <c r="E90">
+        <v>0.04825296970198217</v>
+      </c>
+      <c r="F90">
+        <v>0.007549922500776066</v>
+      </c>
+      <c r="G90">
+        <v>-0.05275177060378908</v>
+      </c>
+      <c r="H90">
+        <v>0.03978213369042588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1882133588468733</v>
+        <v>0.1581842065017034</v>
       </c>
       <c r="C91">
-        <v>0.1407403288586012</v>
+        <v>0.1583933764299305</v>
       </c>
       <c r="D91">
-        <v>0.07700182440021197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08348893442467052</v>
+      </c>
+      <c r="E91">
+        <v>0.1081788048297533</v>
+      </c>
+      <c r="F91">
+        <v>0.02106446367593397</v>
+      </c>
+      <c r="G91">
+        <v>0.0970259938472835</v>
+      </c>
+      <c r="H91">
+        <v>-0.07332066944775534</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1701423488000093</v>
+        <v>0.2255805810731726</v>
       </c>
       <c r="C92">
-        <v>-0.2978148069137794</v>
+        <v>-0.2702717669732538</v>
       </c>
       <c r="D92">
-        <v>-0.009907091171911669</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03384309037308574</v>
+      </c>
+      <c r="E92">
+        <v>0.08873816014875983</v>
+      </c>
+      <c r="F92">
+        <v>-0.009529000552035803</v>
+      </c>
+      <c r="G92">
+        <v>-0.01873614317545005</v>
+      </c>
+      <c r="H92">
+        <v>0.03816575705507143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2197071820308538</v>
+        <v>0.2651084377194848</v>
       </c>
       <c r="C93">
-        <v>-0.3211321286498395</v>
+        <v>-0.2640130751487824</v>
       </c>
       <c r="D93">
-        <v>0.001551823404032284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>2.377248011191695e-05</v>
+      </c>
+      <c r="E93">
+        <v>0.01204183767696132</v>
+      </c>
+      <c r="F93">
+        <v>0.01964607532990961</v>
+      </c>
+      <c r="G93">
+        <v>0.00594940137343934</v>
+      </c>
+      <c r="H93">
+        <v>-0.006602516029850117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3987636660408064</v>
+        <v>0.3368175827781928</v>
       </c>
       <c r="C94">
-        <v>0.2104213126685746</v>
+        <v>0.2647521396732863</v>
       </c>
       <c r="D94">
-        <v>0.4515286011733685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4290599759856861</v>
+      </c>
+      <c r="E94">
+        <v>0.08788261824777396</v>
+      </c>
+      <c r="F94">
+        <v>-0.02266194237878785</v>
+      </c>
+      <c r="G94">
+        <v>-0.4648690860862643</v>
+      </c>
+      <c r="H94">
+        <v>-0.2496539579456891</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07817979719656384</v>
+        <v>0.06822124021782217</v>
       </c>
       <c r="C95">
-        <v>0.05823810741649112</v>
+        <v>0.06636332288968035</v>
       </c>
       <c r="D95">
-        <v>-0.1190323813756966</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08692100961225838</v>
+      </c>
+      <c r="E95">
+        <v>-0.006015631623881836</v>
+      </c>
+      <c r="F95">
+        <v>-0.9060498363158772</v>
+      </c>
+      <c r="G95">
+        <v>0.1546801233374561</v>
+      </c>
+      <c r="H95">
+        <v>-6.708012528677164e-05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1699682845824227</v>
+        <v>0.1608398662782403</v>
       </c>
       <c r="C98">
-        <v>0.01572376504564821</v>
+        <v>0.06646145170646503</v>
       </c>
       <c r="D98">
-        <v>-0.1819968152159723</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1283446486640594</v>
+      </c>
+      <c r="E98">
+        <v>-0.3158841972520426</v>
+      </c>
+      <c r="F98">
+        <v>0.05040527552344638</v>
+      </c>
+      <c r="G98">
+        <v>0.05403655283318252</v>
+      </c>
+      <c r="H98">
+        <v>-0.04562737716375364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00496542939692868</v>
+        <v>0.006013251616750698</v>
       </c>
       <c r="C101">
-        <v>0.01557868112655222</v>
+        <v>0.02218778494021819</v>
       </c>
       <c r="D101">
-        <v>-0.07006621653621367</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08880041689947976</v>
+      </c>
+      <c r="E101">
+        <v>0.03433710370755707</v>
+      </c>
+      <c r="F101">
+        <v>0.01262486663280727</v>
+      </c>
+      <c r="G101">
+        <v>-0.002564344741526154</v>
+      </c>
+      <c r="H101">
+        <v>0.09845448263938872</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1309435982033345</v>
+        <v>0.1064116783930845</v>
       </c>
       <c r="C102">
-        <v>0.1105204487593716</v>
+        <v>0.1194184968637072</v>
       </c>
       <c r="D102">
-        <v>0.0439445052421519</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06317767741248441</v>
+      </c>
+      <c r="E102">
+        <v>0.02935490775364328</v>
+      </c>
+      <c r="F102">
+        <v>-0.02512911284384113</v>
+      </c>
+      <c r="G102">
+        <v>0.03205636695652428</v>
+      </c>
+      <c r="H102">
+        <v>0.04787811570579126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
